--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail3 Features.xlsx
@@ -4116,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,29 +4127,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4170,115 +4168,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4295,72 +4283,66 @@
         <v>6.567166272794374e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.155843930813444</v>
+        <v>3.57661496925864e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.793386359264362</v>
+        <v>1.695248199347002e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.57661496925864e-07</v>
+        <v>0.04581671308965195</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.695248199347002e-06</v>
+        <v>0.2603732423638443</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04581671308965195</v>
+        <v>0.06981032310057407</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2603732423638443</v>
+        <v>1.908203757608</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06981032310057407</v>
+        <v>2.929637708933128</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.948936895530448</v>
+        <v>5.363598876674466</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.929637708933128</v>
+        <v>1.142995751435407e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.363598876674466</v>
+        <v>11009571737.09772</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.142995751435407e-17</v>
+        <v>1.089951077479788e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11009571737.09772</v>
+        <v>1385.432806492458</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.089951077479788e-08</v>
+        <v>3.705044045988439e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1385.432806492458</v>
+        <v>8.976602121151496</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.705044045988439e-05</v>
+        <v>1.558179394863099</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.976602121151496</v>
+        <v>0.002985501730003034</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.558179394863099</v>
+        <v>6.53275198865307</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.002985501730003034</v>
+        <v>0.9601193316366329</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.53275198865307</v>
+        <v>1.059037368371772</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9601193316366329</v>
+        <v>228</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.059037368371772</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>9.288402483126051</v>
       </c>
     </row>
@@ -4375,72 +4357,66 @@
         <v>5.910711162347328e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.6375930578341639</v>
+        <v>2.888259419147548e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.2184419622396057</v>
+        <v>1.697640855559472e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.888259419147548e-07</v>
+        <v>0.03053070793585936</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.697640855559472e-06</v>
+        <v>0.2505081815170505</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03053070793585936</v>
+        <v>0.06359445279024631</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2505081815170505</v>
+        <v>1.910938324554363</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06359445279024631</v>
+        <v>2.871777794055361</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.952612392980248</v>
+        <v>5.220781188373202</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.871777794055361</v>
+        <v>1.400207675474859e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.220781188373202</v>
+        <v>8805173199.862305</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.400207675474859e-17</v>
+        <v>1.364663666462363e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8805173199.862305</v>
+        <v>1085.596064142362</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.364663666462363e-08</v>
+        <v>3.794745521864007e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1085.596064142362</v>
+        <v>9.454510269983745</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.794745521864007e-05</v>
+        <v>1.110531778628992</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.454510269983745</v>
+        <v>0.00339203818837964</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.110531778628992</v>
+        <v>6.459806262240638</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00339203818837964</v>
+        <v>0.959900371324091</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.459806262240638</v>
+        <v>0.9182338537522723</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.959900371324091</v>
+        <v>219</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9182338537522723</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>219</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>9.797450859005952</v>
       </c>
     </row>
@@ -4455,72 +4431,66 @@
         <v>5.615229670200166e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3910871990385602</v>
+        <v>2.21599826553191e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.035682744823658</v>
+        <v>1.698842055731682e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.21599826553191e-07</v>
+        <v>0.01138147865877063</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.698842055731682e-06</v>
+        <v>0.2156065400160604</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01138147865877063</v>
+        <v>0.04654304979076078</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2156065400160604</v>
+        <v>1.917060442285694</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04654304979076078</v>
+        <v>2.711309306738809</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.951481753594975</v>
+        <v>5.160985923813136</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.711309306738809</v>
+        <v>1.317743045493625e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.160985923813136</v>
+        <v>9333532750.19779</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.317743045493625e-17</v>
+        <v>1.29046468435161e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>9333532750.19779</v>
+        <v>1147.94966134436</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.29046468435161e-08</v>
+        <v>4.777829331187164e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1147.94966134436</v>
+        <v>11.78008585463901</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.777829331187164e-05</v>
+        <v>1.084678447065388</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.78008585463901</v>
+        <v>0.006630213960811526</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.084678447065388</v>
+        <v>6.308603996275344</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006630213960811526</v>
+        <v>0.9609671052635431</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.308603996275344</v>
+        <v>0.9387718582723801</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9609671052635431</v>
+        <v>225</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9387718582723801</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.055786848485779</v>
       </c>
     </row>
@@ -4535,72 +4505,66 @@
         <v>5.577961186591741e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3645235775766</v>
+        <v>1.861585332212639e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.105253025837619</v>
+        <v>1.699011018393115e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.861585332212639e-07</v>
+        <v>-0.004496939293903018</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.699011018393115e-06</v>
+        <v>0.1826491759699794</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.004496939293903018</v>
+        <v>0.03334206333664153</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1826491759699794</v>
+        <v>1.916702401162925</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03334206333664153</v>
+        <v>3.055917257027432</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.94893051977869</v>
+        <v>5.50680715531543</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.055917257027432</v>
+        <v>1.562784014509807e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.50680715531543</v>
+        <v>7821509260.097234</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.562784014509807e-17</v>
+        <v>1.539464597606262e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7821509260.097234</v>
+        <v>956.0488597646194</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.539464597606262e-08</v>
+        <v>6.338455219648716e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>956.0488597646194</v>
+        <v>11.43528759837728</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6.338455219648716e-05</v>
+        <v>1.389605301870557</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.43528759837728</v>
+        <v>0.008288531831389355</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.389605301870557</v>
+        <v>6.127824966930851</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008288531831389355</v>
+        <v>0.9613137482998386</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.127824966930851</v>
+        <v>1.089396583764768</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9613137482998386</v>
+        <v>218</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.089396583764768</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>7.740322515466054</v>
       </c>
     </row>
@@ -4615,72 +4579,66 @@
         <v>5.673772952285642e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3950317310564478</v>
+        <v>1.896260484132518e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.071822976872983</v>
+        <v>1.69840133831878e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.896260484132518e-07</v>
+        <v>-0.01655896307732622</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.69840133831878e-06</v>
+        <v>0.1568211885557018</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01655896307732622</v>
+        <v>0.02484409294389228</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1568211885557018</v>
+        <v>1.916168457404589</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02484409294389228</v>
+        <v>2.935844190214091</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.948344067557277</v>
+        <v>5.673875624144904</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.935844190214091</v>
+        <v>1.98089209592034e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.673875624144904</v>
+        <v>6313989188.887049</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.98089209592034e-17</v>
+        <v>1.905634235488243e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>6313989188.887049</v>
+        <v>789.7115447107559</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.905634235488243e-08</v>
+        <v>9.726744984629318e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>789.7115447107559</v>
+        <v>8.96800133227117</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>9.726744984629318e-05</v>
+        <v>1.908418069111496</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.96800133227117</v>
+        <v>0.007822739312572701</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.908418069111496</v>
+        <v>5.112375669468086</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007822739312572701</v>
+        <v>0.960911973133829</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.112375669468086</v>
+        <v>1.073773461039037</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.960911973133829</v>
+        <v>190</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.073773461039037</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.658794213788768</v>
       </c>
     </row>
@@ -4695,72 +4653,66 @@
         <v>5.832269967712349e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4128238710575993</v>
+        <v>1.934832932138682e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.087962331087547</v>
+        <v>1.697163050097256e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.934832932138682e-07</v>
+        <v>-0.02609048042997889</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.697163050097256e-06</v>
+        <v>0.1348583551378091</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02609048042997889</v>
+        <v>0.01885093491048808</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1348583551378091</v>
+        <v>1.91613562435144</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01885093491048808</v>
+        <v>2.793087922109306</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.947114664757194</v>
+        <v>5.763192632480736</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.793087922109306</v>
+        <v>1.919968794702627e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.763192632480736</v>
+        <v>6530369554.058761</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.919968794702627e-17</v>
+        <v>1.841691772859297e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>6530369554.058761</v>
+        <v>818.784641315715</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.841691772859297e-08</v>
+        <v>9.597629768933392e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>818.784641315715</v>
+        <v>7.974251934795736</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.597629768933392e-05</v>
+        <v>1.292340477927363</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.974251934795736</v>
+        <v>0.006103007417302847</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.292340477927363</v>
+        <v>4.325822844790903</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006103007417302847</v>
+        <v>0.9611780058139447</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.325822844790903</v>
+        <v>1.109905108943432</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9611780058139447</v>
+        <v>203</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.109905108943432</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.953448971573514</v>
       </c>
     </row>
@@ -4775,72 +4727,66 @@
         <v>6.012636460009856e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.4021861230463195</v>
+        <v>1.972560311567522e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.14084714888734</v>
+        <v>1.69536037342052e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.972560311567522e-07</v>
+        <v>-0.03475349668159634</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.69536037342052e-06</v>
+        <v>0.1112096803238806</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03475349668159634</v>
+        <v>0.01355793785926303</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1112096803238806</v>
+        <v>1.91693744501057</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01355793785926303</v>
+        <v>2.918852421132707</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.947272884381274</v>
+        <v>6.004801176882786</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.918852421132707</v>
+        <v>1.768573762063107e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.004801176882786</v>
+        <v>7159097076.449908</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.768573762063107e-17</v>
+        <v>1.683262834177573e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>7159097076.449908</v>
+        <v>906.4412907788351</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.683262834177573e-08</v>
+        <v>0.0001095447457016746</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>906.4412907788351</v>
+        <v>8.509366663401988</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001095447457016746</v>
+        <v>1.225694050276174</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.509366663401988</v>
+        <v>0.00793206065671424</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.225694050276174</v>
+        <v>3.726469997182993</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.00793206065671424</v>
+        <v>0.9617935736058797</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.726469997182993</v>
+        <v>1.103416128471148</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9617935736058797</v>
+        <v>213</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.103416128471148</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.05963963160726</v>
       </c>
     </row>
@@ -4855,72 +4801,66 @@
         <v>6.183229100195627e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.3676815384267385</v>
+        <v>2.007643844788748e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.194019390431131</v>
+        <v>1.692987758736171e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.007643844788748e-07</v>
+        <v>-0.04272206266350678</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.692987758736171e-06</v>
+        <v>0.08507153035531849</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04272206266350678</v>
+        <v>0.009049445831803221</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08507153035531849</v>
+        <v>1.916060311053964</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.009049445831803221</v>
+        <v>2.985792583549098</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.942685718158541</v>
+        <v>6.011498933309984</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.985792583549098</v>
+        <v>1.764635018149071e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.011498933309984</v>
+        <v>7542605796.627476</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.764635018149071e-17</v>
+        <v>1.603353606401962e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>7542605796.627476</v>
+        <v>1003.916782420698</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.603353606401962e-08</v>
+        <v>0.0001154651178976723</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1003.916782420698</v>
+        <v>8.328069216606165</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001154651178976723</v>
+        <v>1.286696326200957</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.328069216606165</v>
+        <v>0.008008283800452518</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.286696326200957</v>
+        <v>3.541809740000627</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008008283800452518</v>
+        <v>0.9615460696172614</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.541809740000627</v>
+        <v>1.067103403486377</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9615460696172614</v>
+        <v>207</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.067103403486377</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.564767220558294</v>
       </c>
     </row>
@@ -4935,72 +4875,66 @@
         <v>6.318772516749591e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.3263080172792144</v>
+        <v>2.038051938481849e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.228246062150991</v>
+        <v>1.690107917030153e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.038051938481849e-07</v>
+        <v>-0.04883504132675141</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.690107917030153e-06</v>
+        <v>0.06300028458358647</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04883504132675141</v>
+        <v>0.00634876318201413</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.06300028458358647</v>
+        <v>1.917822042912642</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00634876318201413</v>
+        <v>2.954372732199296</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.941661791815742</v>
+        <v>5.866823981419669</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.954372732199296</v>
+        <v>1.852739347622652e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.866823981419669</v>
+        <v>7120510719.169478</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.852739347622652e-17</v>
+        <v>1.697740171275425e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7120510719.169478</v>
+        <v>939.369843754718</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.697740171275425e-08</v>
+        <v>0.000114640242201481</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>939.369843754718</v>
+        <v>7.478123721769017</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000114640242201481</v>
+        <v>1.306083471442868</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.478123721769017</v>
+        <v>0.006410949959868619</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.306083471442868</v>
+        <v>3.636832940580804</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006410949959868619</v>
+        <v>0.9621372550299183</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.636832940580804</v>
+        <v>1.104443914375002</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9621372550299183</v>
+        <v>151</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.104443914375002</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.367550834539782</v>
       </c>
     </row>
@@ -5015,72 +4949,66 @@
         <v>6.413714318259378e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.2911378198905352</v>
+        <v>2.062139420576383e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.252814556107374</v>
+        <v>1.686878802216261e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.062139420576383e-07</v>
+        <v>-0.05209192910467619</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.686878802216261e-06</v>
+        <v>0.05262552632328191</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05209192910467619</v>
+        <v>0.005482202400428723</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.05262552632328191</v>
+        <v>1.919647991886267</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005482202400428723</v>
+        <v>2.82372748479428</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.942930637796302</v>
+        <v>5.599424434256615</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.82372748479428</v>
+        <v>2.033919058681819e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.599424434256615</v>
+        <v>6446695688.436661</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.033919058681819e-17</v>
+        <v>1.87255397978579e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>6446695688.436661</v>
+        <v>845.2944278689254</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.87255397978579e-08</v>
+        <v>0.0001259533211758386</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>845.2944278689254</v>
+        <v>7.421129605986298</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001259533211758386</v>
+        <v>1.585589334676392</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.421129605986298</v>
+        <v>0.006936647992666918</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.585589334676392</v>
+        <v>3.684124894309429</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006936647992666918</v>
+        <v>0.961249300456154</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.684124894309429</v>
+        <v>1.110190770629125</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.961249300456154</v>
+        <v>112</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.110190770629125</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.337099371259414</v>
       </c>
     </row>
@@ -5095,72 +5023,66 @@
         <v>6.477494563195317e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.262813520150766</v>
+        <v>2.077210931616691e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.279184776742199</v>
+        <v>1.683471882855833e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.077210931616691e-07</v>
+        <v>-0.05328791546763035</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.683471882855833e-06</v>
+        <v>0.04927736861579809</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05328791546763035</v>
+        <v>0.005268135462091946</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.04927736861579809</v>
+        <v>1.919902452983372</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.005268135462091946</v>
+        <v>2.814366538182268</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.940888519948382</v>
+        <v>5.892165146236659</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.814366538182268</v>
+        <v>2.470983246917865e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.892165146236659</v>
+        <v>5178687353.768271</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.470983246917865e-17</v>
+        <v>2.331983612964897e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>5178687353.768271</v>
+        <v>662.6881219405972</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.331983612964897e-08</v>
+        <v>0.0001292181317171821</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>662.6881219405972</v>
+        <v>8.803684288858623</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001292181317171821</v>
+        <v>1.364272542666767</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.803684288858623</v>
+        <v>0.01001503282802859</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.364272542666767</v>
+        <v>3.637986623387807</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01001503282802859</v>
+        <v>0.9605994290756059</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.637986623387807</v>
+        <v>1.086777228199472</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9605994290756059</v>
+        <v>78</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.086777228199472</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.440749187466548</v>
       </c>
     </row>
@@ -5175,72 +5097,66 @@
         <v>6.519281281025638e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2366495682881252</v>
+        <v>2.076359718360485e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.310188483742754</v>
+        <v>1.6800086437371e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.076359718360485e-07</v>
+        <v>-0.05305232199827259</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.6800086437371e-06</v>
+        <v>0.04880184158949237</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05305232199827259</v>
+        <v>0.005196488511321254</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04880184158949237</v>
+        <v>1.905608769408383</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005196488511321254</v>
+        <v>2.656995438591858</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.930242271498698</v>
+        <v>5.785810436769305</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.656995438591858</v>
+        <v>3.416949000195808e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.785810436769305</v>
+        <v>3434235400.209556</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.416949000195808e-17</v>
+        <v>3.479782539481633e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>3434235400.209556</v>
+        <v>402.9940351280472</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.479782539481633e-08</v>
+        <v>0.0001205020465140541</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>402.9940351280472</v>
+        <v>9.620961536134988</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001205020465140541</v>
+        <v>1.103645673949054</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.620961536134988</v>
+        <v>0.0111540189872921</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.103645673949054</v>
+        <v>3.51383766304887</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0111540189872921</v>
+        <v>0.960781524475504</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.51383766304887</v>
+        <v>1.133759125234114</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.960781524475504</v>
+        <v>54</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.133759125234114</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.464699836304401</v>
       </c>
     </row>
@@ -5255,72 +5171,66 @@
         <v>6.544653251660618e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2076302527892178</v>
+        <v>2.048165312674281e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.34423936821361</v>
+        <v>1.67657972847106e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.048165312674281e-07</v>
+        <v>-0.05178362459882198</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.67657972847106e-06</v>
+        <v>0.04949818774537008</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05178362459882198</v>
+        <v>0.005131702428508065</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04949818774537008</v>
+        <v>1.900981831185149</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005131702428508065</v>
+        <v>2.601744013593688</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.912958841395277</v>
+        <v>5.638162024224092</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.601744013593688</v>
+        <v>4.164153254485904e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.638162024224092</v>
+        <v>2845454328.461486</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.164153254485904e-17</v>
+        <v>4.195491278130812e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2845454328.461486</v>
+        <v>337.1552627829442</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.195491278130812e-08</v>
+        <v>0.0001202231925713409</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>337.1552627829442</v>
+        <v>9.365962598165599</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001202231925713409</v>
+        <v>1.070478472683411</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.365962598165599</v>
+        <v>0.01054612937938022</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.070478472683411</v>
+        <v>3.400181876886305</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01054612937938022</v>
+        <v>0.9592153198752633</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.400181876886305</v>
+        <v>1.214118244173576</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9592153198752633</v>
+        <v>57</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.214118244173576</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.323731105846572</v>
       </c>
     </row>
@@ -5335,72 +5245,66 @@
         <v>6.557495863352307e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1732618627657276</v>
+        <v>2.005003971760836e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.377639113258178</v>
+        <v>1.673236739031047e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.005003971760836e-07</v>
+        <v>-0.05029128979768752</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.673236739031047e-06</v>
+        <v>0.05015928149221776</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05029128979768752</v>
+        <v>0.00504513929630089</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.05015928149221776</v>
+        <v>1.894536290106498</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.00504513929630089</v>
+        <v>2.278759108440555</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.896114751712818</v>
+        <v>5.654361037882567</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.278759108440555</v>
+        <v>6.85721968342141e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.654361037882567</v>
+        <v>1733687622.410224</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.85721968342141e-17</v>
+        <v>6.879435084495056e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1733687622.410224</v>
+        <v>206.1055849475705</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.879435084495056e-08</v>
+        <v>0.0001345968231126066</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>206.1055849475705</v>
+        <v>7.962584996257552</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001345968231126066</v>
+        <v>1.52675976876768</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.962584996257552</v>
+        <v>0.008533810048697053</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.52675976876768</v>
+        <v>3.482905557953405</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008533810048697053</v>
+        <v>0.9605414409640159</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.482905557953405</v>
+        <v>1.384154582520404</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9605414409640159</v>
+        <v>57</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.384154582520404</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.043405584496083</v>
       </c>
     </row>
@@ -5415,72 +5319,66 @@
         <v>6.56512378900254e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1340905828400439</v>
+        <v>1.960475115470998e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.405411573765539</v>
+        <v>1.669978430898052e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.960475115470998e-07</v>
+        <v>-0.04907027761941568</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.669978430898052e-06</v>
+        <v>0.05016741152020116</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04907027761941568</v>
+        <v>0.004924464016891976</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.05016741152020116</v>
+        <v>1.89610501920124</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.004924464016891976</v>
+        <v>2.292786591610472</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.899739757937874</v>
+        <v>4.688804820077999</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.292786591610472</v>
+        <v>1.031558639065381e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.688804820077999</v>
+        <v>1193754042.373011</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.031558639065381e-16</v>
+        <v>1.002193235335642e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1193754042.373011</v>
+        <v>147.0021311687576</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.002193235335642e-07</v>
+        <v>0.0001657515002145362</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>147.0021311687576</v>
+        <v>8.217185825669421</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001657515002145362</v>
+        <v>1.844632191355203</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.217185825669421</v>
+        <v>0.01119189648231158</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.844632191355203</v>
+        <v>3.330978946095656</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01119189648231158</v>
+        <v>0.9609590177290861</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.330978946095656</v>
+        <v>1.342313175324183</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9609590177290861</v>
+        <v>49</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.342313175324183</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.7292983797943877</v>
       </c>
     </row>
@@ -5495,72 +5393,66 @@
         <v>6.573920616469236e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.09157895996849864</v>
+        <v>1.966704696934226e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.424493687264858</v>
+        <v>1.666780316333376e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.966704696934226e-07</v>
+        <v>-0.04841759177978933</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.666780316333376e-06</v>
+        <v>0.05002375532812298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04841759177978933</v>
+        <v>0.004846586344097258</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05002375532812298</v>
+        <v>1.891501908895702</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.004846586344097258</v>
+        <v>2.160539473533853</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.894784646816638</v>
+        <v>4.440301098264428</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.160539473533853</v>
+        <v>1.150253037146637e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.440301098264428</v>
+        <v>1067538106.05778</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.150253037146637e-16</v>
+        <v>1.118321239331618e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1067538106.05778</v>
+        <v>131.0871619716746</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.118321239331618e-07</v>
+        <v>0.0001462793729996864</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>131.0871619716746</v>
+        <v>8.9272060202779</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001462793729996864</v>
+        <v>1.39812342471274</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.9272060202779</v>
+        <v>0.01165773570321635</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.39812342471274</v>
+        <v>3.227428175054297</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01165773570321635</v>
+        <v>0.959863124404008</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.227428175054297</v>
+        <v>1.367489898059622</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.959863124404008</v>
+        <v>49</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.367489898059622</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.5473236144588252</v>
       </c>
     </row>
@@ -5575,72 +5467,66 @@
         <v>6.583626399407107e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.04824722975595899</v>
+        <v>2.000008669178402e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.434840539103316</v>
+        <v>1.663596690174396e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.000008669178402e-07</v>
+        <v>-0.04848451631785832</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.663596690174396e-06</v>
+        <v>0.04992933753669836</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04848451631785832</v>
+        <v>0.004843763777078558</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04992933753669836</v>
+        <v>1.892185826091745</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004843763777078558</v>
+        <v>2.180143044339161</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.892844162648756</v>
+        <v>4.458589836543374</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.180143044339161</v>
+        <v>1.140835919971171e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.458589836543374</v>
+        <v>1101742743.836724</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.140835919971171e-16</v>
+        <v>1.086489343653042e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1101742743.836724</v>
+        <v>138.4788934552002</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.086489343653042e-07</v>
+        <v>0.0001382617508620453</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>138.4788934552002</v>
+        <v>9.723095710162816</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001382617508620453</v>
+        <v>1.147051070776429</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.723095710162816</v>
+        <v>0.01307107100355866</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.147051070776429</v>
+        <v>3.017666641270332</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01307107100355866</v>
+        <v>0.9611496691914415</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.017666641270332</v>
+        <v>1.361808955211671</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9611496691914415</v>
+        <v>49</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.361808955211671</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.4609335368058344</v>
       </c>
     </row>
@@ -5655,72 +5541,66 @@
         <v>6.590330806382674e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.006552589844625935</v>
+        <v>2.03729179495874e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.437779545127176</v>
+        <v>1.660379944404549e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.03729179495874e-07</v>
+        <v>-0.04930766507922019</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.660379944404549e-06</v>
+        <v>0.04953004369385784</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04930766507922019</v>
+        <v>0.004884543688904007</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04953004369385784</v>
+        <v>1.896231414407123</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004884543688904007</v>
+        <v>2.371457416072668</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.900310290370291</v>
+        <v>4.517369719807781</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.371457416072668</v>
+        <v>1.111340028935128e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.517369719807781</v>
+        <v>1188454221.578562</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.111340028935128e-16</v>
+        <v>1.009705718065561e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1188454221.578562</v>
+        <v>156.9682703108524</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.009705718065561e-07</v>
+        <v>0.0001419942065284479</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>156.9682703108524</v>
+        <v>9.84212575013712</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001419942065284479</v>
+        <v>1.15624965788166</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.84212575013712</v>
+        <v>0.01375461517922092</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.15624965788166</v>
+        <v>2.872163426431854</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01375461517922092</v>
+        <v>0.960481231982699</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.872163426431854</v>
+        <v>1.319341911093951</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.960481231982699</v>
+        <v>59</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.319341911093951</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.4175091734325004</v>
       </c>
     </row>
@@ -5735,72 +5615,66 @@
         <v>6.587306164964258e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.03049720799438491</v>
+        <v>2.076515619605016e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.436642948938005</v>
+        <v>1.657077892589744e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.076515619605016e-07</v>
+        <v>-0.05107285164349707</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.657077892589744e-06</v>
+        <v>0.04797447401475132</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05107285164349707</v>
+        <v>0.00490975291451119</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.04797447401475132</v>
+        <v>1.900365311990558</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.00490975291451119</v>
+        <v>2.288639384403246</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.903252003705582</v>
+        <v>4.563767315319781</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.288639384403246</v>
+        <v>1.088857991138046e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.563767315319781</v>
+        <v>1223040707.025645</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.088857991138046e-16</v>
+        <v>9.819241340817071e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1223040707.025645</v>
+        <v>162.8744892951459</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>9.819241340817071e-08</v>
+        <v>0.0001421838300704272</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>162.8744892951459</v>
+        <v>8.832257500896192</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001421838300704272</v>
+        <v>1.224832441243066</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.832257500896192</v>
+        <v>0.01109158606197749</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.224832441243066</v>
+        <v>3.029245848629459</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01109158606197749</v>
+        <v>0.961790622524987</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.029245848629459</v>
+        <v>1.337795897024383</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.961790622524987</v>
+        <v>90</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.337795897024383</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.4010486948955322</v>
       </c>
     </row>
@@ -5815,72 +5689,66 @@
         <v>6.565598278768827e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.05842847540562154</v>
+        <v>2.115843712712527e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.439309273383631</v>
+        <v>1.653638407622266e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.115843712712527e-07</v>
+        <v>-0.0534501708123864</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.653638407622266e-06</v>
+        <v>0.04534588788819215</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.0534501708123864</v>
+        <v>0.004913154082453699</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.04534588788819215</v>
+        <v>1.901055351698545</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004913154082453699</v>
+        <v>2.370732229856655</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.901477995183735</v>
+        <v>4.634636659734348</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.370732229856655</v>
+        <v>1.055812611017724e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.634636659734348</v>
+        <v>1233867518.001449</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.055812611017724e-16</v>
+        <v>9.763802286243217e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1233867518.001449</v>
+        <v>160.7399792459246</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.763802286243217e-08</v>
+        <v>0.0001579412314221831</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>160.7399792459246</v>
+        <v>8.07275037313339</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001579412314221831</v>
+        <v>1.615403060466148</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.07275037313339</v>
+        <v>0.01029291926973891</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.615403060466148</v>
+        <v>3.122273542079824</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01029291926973891</v>
+        <v>0.9621192291803098</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.122273542079824</v>
+        <v>1.358874259263605</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9621192291803098</v>
+        <v>119</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.358874259263605</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.4114675101677387</v>
       </c>
     </row>
@@ -5895,72 +5763,66 @@
         <v>6.526379647387177e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.07649932520918251</v>
+        <v>2.149401091052135e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.4512131085711</v>
+        <v>1.650084588133443e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.149401091052135e-07</v>
+        <v>-0.0548885315149513</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.650084588133443e-06</v>
+        <v>0.04476569729836066</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.0548885315149513</v>
+        <v>0.005016851039125664</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.04476569729836066</v>
+        <v>1.907354550140622</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005016851039125664</v>
+        <v>2.297718758580182</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.906819526855575</v>
+        <v>4.628026077972814</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.297718758580182</v>
+        <v>1.058830969250047e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.628026077972814</v>
+        <v>1228869583.166802</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.058830969250047e-16</v>
+        <v>9.826348333872988e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1228869583.166802</v>
+        <v>159.8962302333475</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>9.826348333872988e-08</v>
+        <v>0.0001551330326512156</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>159.8962302333475</v>
+        <v>8.637230781359268</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001551330326512156</v>
+        <v>1.4812656347577</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.637230781359268</v>
+        <v>0.01157319658275018</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.4812656347577</v>
+        <v>3.139529329629697</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01157319658275018</v>
+        <v>0.9622996141094126</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.139529329629697</v>
+        <v>1.328353695637888</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9622996141094126</v>
+        <v>100</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.328353695637888</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.4401730650931198</v>
       </c>
     </row>
@@ -5975,72 +5837,66 @@
         <v>6.48160035775663e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.09044445178048779</v>
+        <v>2.139034374556191e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.466025095816763</v>
+        <v>1.64650227873617e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.139034374556191e-07</v>
+        <v>-0.05500130682907536</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.64650227873617e-06</v>
+        <v>0.04508600474581392</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05500130682907536</v>
+        <v>0.005057811396675771</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.04508600474581392</v>
+        <v>1.735789354021608</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005057811396675771</v>
+        <v>1.329026774558835</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.772418944171671</v>
+        <v>23.92793662208233</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.329026774558835</v>
+        <v>4.748594256494155e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>23.92793662208233</v>
+        <v>2280083336.534921</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.748594256494155e-16</v>
+        <v>4.787587797591191e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>2280083336.534921</v>
+        <v>2468.689695108143</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.787587797591191e-08</v>
+        <v>0.000142241743604452</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2468.689695108143</v>
+        <v>9.175187037409172</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.000142241743604452</v>
+        <v>1.226897275195358</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.175187037409172</v>
+        <v>0.01197448707576268</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.226897275195358</v>
+        <v>3.085951260900712</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01197448707576268</v>
+        <v>0.9578731905169516</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.085951260900712</v>
+        <v>0.6414537006185976</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9578731905169516</v>
+        <v>90</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.6414537006185976</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.4284813841321872</v>
       </c>
     </row>
@@ -6055,72 +5911,66 @@
         <v>6.436602185335621e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1077459432588494</v>
+        <v>2.080116848284675e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.476868074273294</v>
+        <v>1.642984324107462e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.080116848284675e-07</v>
+        <v>-0.05386229928217697</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.642984324107462e-06</v>
+        <v>0.04539419714693464</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05386229928217697</v>
+        <v>0.004961343747198253</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.04539419714693464</v>
+        <v>1.650814064068694</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004961343747198253</v>
+        <v>1.251176032770793</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.712366059294153</v>
+        <v>43.20909524793771</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.251176032770793</v>
+        <v>1.797194710671393e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>43.20909524793771</v>
+        <v>1757377625.888985</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.797194710671393e-15</v>
+        <v>6.094886624570031e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1757377625.888985</v>
+        <v>5550.413227383277</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.094886624570031e-08</v>
+        <v>0.0001027613410936723</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>5550.413227383277</v>
+        <v>9.986529514893782</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001027613410936723</v>
+        <v>1.107912881730232</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.986529514893782</v>
+        <v>0.01024846785352648</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.107912881730232</v>
+        <v>4.296624954639772</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01024846785352648</v>
+        <v>0.9573087384892165</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>4.296624954639772</v>
+        <v>0.7740207562980499</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9573087384892165</v>
+        <v>84</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.7740207562980499</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>2.189839707406059</v>
       </c>
     </row>
@@ -6497,7 +6347,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.617369710065269</v>
+        <v>1.641428050965548</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.856989102434096</v>
@@ -6586,7 +6436,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.662425465481091</v>
+        <v>1.686753092832995</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.462606205861068</v>
@@ -6675,7 +6525,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.687674133179998</v>
+        <v>1.714534320329745</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.038330591504058</v>
@@ -6764,7 +6614,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.68615789798416</v>
+        <v>1.713613965909837</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.909974278278299</v>
@@ -6853,7 +6703,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.691296445686778</v>
+        <v>1.725204637697456</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.482855816303945</v>
@@ -6942,7 +6792,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.686968340133983</v>
+        <v>1.710071926879148</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.820864653227737</v>
@@ -7031,7 +6881,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.701384138809241</v>
+        <v>1.726979299834964</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.342130328032159</v>
@@ -7120,7 +6970,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.711861584161023</v>
+        <v>1.739094611154368</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.705243831093963</v>
@@ -7209,7 +7059,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.73852721909026</v>
+        <v>1.765975742747851</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.742862485308852</v>
@@ -7298,7 +7148,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.764148984777099</v>
+        <v>1.7904131737546</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.937347334938119</v>
@@ -7387,7 +7237,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.778553425419693</v>
+        <v>1.807279983106921</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.457800753009752</v>
@@ -7476,7 +7326,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.785782177500008</v>
+        <v>1.81428730746138</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.673294392728796</v>
@@ -7565,7 +7415,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.803534001373242</v>
+        <v>1.827619484706742</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.836879604883903</v>
@@ -7654,7 +7504,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.786666613740592</v>
+        <v>1.810718523123888</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.796366141676963</v>
@@ -7743,7 +7593,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.78758077123292</v>
+        <v>1.814472481548738</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.92629758114585</v>
@@ -7832,7 +7682,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.792034323742192</v>
+        <v>1.815862867981745</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.866345669439442</v>
@@ -7921,7 +7771,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.768947656027799</v>
+        <v>1.797329337907972</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.845937058971226</v>
@@ -8010,7 +7860,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.748934529279009</v>
+        <v>1.778306732455805</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.897452094473659</v>
@@ -8099,7 +7949,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.767240420369866</v>
+        <v>1.790133263410974</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.068546939365312</v>
@@ -8188,7 +8038,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.794367230026492</v>
+        <v>1.817278581886605</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.924727143939282</v>
@@ -8277,7 +8127,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.814336717301289</v>
+        <v>1.849154124229292</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.421008294975154</v>
@@ -8366,7 +8216,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.82192860875521</v>
+        <v>1.857108728782102</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.916379886148968</v>
@@ -8455,7 +8305,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.827778413439783</v>
+        <v>1.863346914258534</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.282231070994562</v>
@@ -8544,7 +8394,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.825686283237928</v>
+        <v>1.860358263820078</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.038821008942396</v>
@@ -8633,7 +8483,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.820867588892089</v>
+        <v>1.854226072030212</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.290517431375793</v>
@@ -8722,7 +8572,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.829155154195913</v>
+        <v>1.865885558819138</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.225856652813639</v>
@@ -8811,7 +8661,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.829525096828885</v>
+        <v>1.86359119148736</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.199819259329278</v>
@@ -8900,7 +8750,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.844328530251828</v>
+        <v>1.878911552196766</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.013382213050223</v>
@@ -8989,7 +8839,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.854688185208722</v>
+        <v>1.889148773449877</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.209502930149889</v>
@@ -9078,7 +8928,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.855883695306368</v>
+        <v>1.892909798638926</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.375646456429249</v>
@@ -9167,7 +9017,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.841508172342385</v>
+        <v>1.878607073364588</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.940469475457383</v>
@@ -9256,7 +9106,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.869776110476273</v>
+        <v>1.904659753635608</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.125487268538135</v>
@@ -9345,7 +9195,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.888822861704583</v>
+        <v>1.922847748662808</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.007200945827885</v>
@@ -9434,7 +9284,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.905601397680589</v>
+        <v>1.945480033397773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.985476072041759</v>
@@ -9523,7 +9373,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.907227580486884</v>
+        <v>1.947516137858202</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.174474044058862</v>
@@ -9612,7 +9462,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.878312017308549</v>
+        <v>1.919258452382442</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.906521597343787</v>
@@ -9701,7 +9551,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.866545795200601</v>
+        <v>1.907778680531419</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.086924940325412</v>
@@ -9790,7 +9640,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.862695754003108</v>
+        <v>1.903691041963599</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.92076389700321</v>
@@ -9879,7 +9729,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.831150549841778</v>
+        <v>1.877835812785628</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.801206549087331</v>
@@ -9968,7 +9818,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.831036737670238</v>
+        <v>1.874298032872522</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.809028980197382</v>
@@ -10057,7 +9907,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.787597475459878</v>
+        <v>1.829211554471269</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.830501175231429</v>
@@ -10146,7 +9996,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.779653679722254</v>
+        <v>1.821873947114039</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.734213136793423</v>
@@ -10235,7 +10085,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.773892098883342</v>
+        <v>1.814201657915484</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.677257240305921</v>
@@ -10324,7 +10174,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.755953599647306</v>
+        <v>1.79395024761024</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.670782630336568</v>
@@ -10413,7 +10263,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.756415307708956</v>
+        <v>1.790189172199875</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.630074552288242</v>
@@ -10502,7 +10352,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.766838809635296</v>
+        <v>1.801429982234422</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.707201618898781</v>
@@ -10591,7 +10441,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.747090693629654</v>
+        <v>1.779282006955616</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.67425497375514</v>
@@ -10680,7 +10530,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.75074535033745</v>
+        <v>1.778521144271741</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.460873150135842</v>
@@ -10769,7 +10619,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.755174883654416</v>
+        <v>1.782288213536285</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.704678533975875</v>
@@ -10858,7 +10708,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.759376361377757</v>
+        <v>1.781112269344169</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.492257329028881</v>
@@ -10947,7 +10797,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.779920508727534</v>
+        <v>1.803358590459456</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.686548798433135</v>
@@ -11036,7 +10886,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.789092745639288</v>
+        <v>1.811824735392399</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.708048583702276</v>
@@ -11125,7 +10975,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.805618605417586</v>
+        <v>1.820588303464722</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.515543879935696</v>
@@ -11214,7 +11064,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.823307903181844</v>
+        <v>1.836865782637511</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.832718520296261</v>
@@ -11303,7 +11153,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.826399124463416</v>
+        <v>1.834346244627711</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.400449891835021</v>
@@ -11392,7 +11242,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.857902906768056</v>
+        <v>1.870735681768198</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.938950566637804</v>
@@ -11481,7 +11331,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.864723586174302</v>
+        <v>1.878315206283629</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.783203813996643</v>
@@ -11570,7 +11420,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.831485431958017</v>
+        <v>1.851590337819098</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.87010399804663</v>
@@ -11659,7 +11509,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.845755966118101</v>
+        <v>1.870861309331508</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.073022107514684</v>
@@ -11748,7 +11598,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.842610913757112</v>
+        <v>1.86884811677884</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.848869751889866</v>
@@ -11837,7 +11687,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.848132547715033</v>
+        <v>1.875794860711744</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.848297918289884</v>
@@ -11926,7 +11776,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.871366264319347</v>
+        <v>1.900269597818405</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.162215254193921</v>
@@ -12015,7 +11865,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.882904407818911</v>
+        <v>1.910516077399146</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.03545947812327</v>
@@ -12104,7 +11954,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.862188740816222</v>
+        <v>1.89266374594289</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.169217742767607</v>
@@ -12193,7 +12043,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.86367340810303</v>
+        <v>1.896936801741897</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.143862567746182</v>
@@ -12282,7 +12132,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.831274555949517</v>
+        <v>1.87371410097226</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.241419770693115</v>
@@ -12371,7 +12221,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.805193168531223</v>
+        <v>1.84920549301518</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.100960658874586</v>
@@ -12460,7 +12310,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.799850638692858</v>
+        <v>1.851744365055524</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.174741489102828</v>
@@ -12746,7 +12596,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.726210606486543</v>
+        <v>1.705611869640331</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.635536189948624</v>
@@ -12835,7 +12685,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.742900546302432</v>
+        <v>1.719954641983868</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.654260702851725</v>
@@ -12924,7 +12774,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.764022835196851</v>
+        <v>1.734556114118649</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.663041287539358</v>
@@ -13013,7 +12863,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.770823771891173</v>
+        <v>1.739520559750365</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.616126227000267</v>
@@ -13102,7 +12952,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.778074541256891</v>
+        <v>1.744813740303</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.697306623240807</v>
@@ -13191,7 +13041,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.768233695735486</v>
+        <v>1.726527149362189</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.525889281669432</v>
@@ -13280,7 +13130,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.76424208524053</v>
+        <v>1.721281071488747</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.608979845512979</v>
@@ -13369,7 +13219,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.765653212218161</v>
+        <v>1.720001625402585</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.145403808419872</v>
@@ -13458,7 +13308,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.778543020944144</v>
+        <v>1.736235811708478</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.618655095340725</v>
@@ -13547,7 +13397,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.799722480946327</v>
+        <v>1.762810816458544</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.863851755486336</v>
@@ -13636,7 +13486,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.806273603375857</v>
+        <v>1.773315415822364</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.484190766967776</v>
@@ -13725,7 +13575,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.803324333005545</v>
+        <v>1.766513238488596</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.798580628521512</v>
@@ -13814,7 +13664,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.813198775485044</v>
+        <v>1.772278650772769</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.173187516662322</v>
@@ -13903,7 +13753,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.810949292003117</v>
+        <v>1.766125087186964</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.564765593234978</v>
@@ -13992,7 +13842,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.820399464255227</v>
+        <v>1.780787851864962</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.390646190294198</v>
@@ -14081,7 +13931,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.825803401835351</v>
+        <v>1.781601159302534</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.002050469562958</v>
@@ -14170,7 +14020,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.815874333653689</v>
+        <v>1.773649755443498</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.80610295756171</v>
@@ -14259,7 +14109,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.81723076249793</v>
+        <v>1.784901049637596</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.280020537636851</v>
@@ -14348,7 +14198,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.811003284054314</v>
+        <v>1.777801996902579</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.740021515616058</v>
@@ -14437,7 +14287,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.812886458655415</v>
+        <v>1.779395973541553</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.223182551587312</v>
@@ -14526,7 +14376,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.829813856732825</v>
+        <v>1.801504876418673</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.090551407938568</v>
@@ -14615,7 +14465,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.82275490100901</v>
+        <v>1.79071985348622</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.176223142651144</v>
@@ -14704,7 +14554,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.822199999752561</v>
+        <v>1.792197723587014</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.709429782821831</v>
@@ -14793,7 +14643,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.823652867528439</v>
+        <v>1.793330528250218</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.990271268400547</v>
@@ -14882,7 +14732,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.8146536062433</v>
+        <v>1.787086823912865</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.444896579833895</v>
@@ -14971,7 +14821,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.804580661691586</v>
+        <v>1.779199995562351</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.199124270694253</v>
@@ -15060,7 +14910,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.807387016206272</v>
+        <v>1.78100979345408</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.373430960163501</v>
@@ -15149,7 +14999,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.80930534920031</v>
+        <v>1.785488742786925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.209951780017144</v>
@@ -15238,7 +15088,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.805723806109498</v>
+        <v>1.788279419243675</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.814594629187185</v>
@@ -15327,7 +15177,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.80657192562857</v>
+        <v>1.787350498738782</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.371032412940508</v>
@@ -15416,7 +15266,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.778317701594333</v>
+        <v>1.759079844995204</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.198707130090729</v>
@@ -15505,7 +15355,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.791251815494568</v>
+        <v>1.769271221201756</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.231531188264829</v>
@@ -15594,7 +15444,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.793258143363921</v>
+        <v>1.768503439634628</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.263007787713001</v>
@@ -15683,7 +15533,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.797296624452495</v>
+        <v>1.77182077027021</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.239081031341747</v>
@@ -15772,7 +15622,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.800698711054512</v>
+        <v>1.77453123564396</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.222291941562273</v>
@@ -15861,7 +15711,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.804969954018962</v>
+        <v>1.785561321125361</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.18710999142596</v>
@@ -15950,7 +15800,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.808950738239937</v>
+        <v>1.788701820026995</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.220740161347839</v>
@@ -16039,7 +15889,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.813724048732644</v>
+        <v>1.79358823058063</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.216675760223978</v>
@@ -16128,7 +15978,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.809119099108335</v>
+        <v>1.794515456805841</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.220239564426453</v>
@@ -16217,7 +16067,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.817894169286554</v>
+        <v>1.804547045502039</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.300997993550927</v>
@@ -16306,7 +16156,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.814319945357436</v>
+        <v>1.799696280232485</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.248435795612874</v>
@@ -16395,7 +16245,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.801243799771106</v>
+        <v>1.791028301978535</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.239859876617</v>
@@ -16484,7 +16334,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.798006082439556</v>
+        <v>1.77787558869847</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.216031485974717</v>
@@ -16573,7 +16423,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.798791823705517</v>
+        <v>1.774793256819774</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.243896660008428</v>
@@ -16662,7 +16512,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.802854430362443</v>
+        <v>1.778626464016288</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.159053446928028</v>
@@ -16751,7 +16601,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.82689834192355</v>
+        <v>1.80728554754449</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.307106423791367</v>
@@ -16840,7 +16690,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.814758569960293</v>
+        <v>1.798106094368791</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.789738716821336</v>
@@ -16929,7 +16779,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.807909959400186</v>
+        <v>1.785889263912109</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.778007048328804</v>
@@ -17018,7 +16868,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.800481534786273</v>
+        <v>1.783417376724626</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.001658002747935</v>
@@ -17107,7 +16957,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.793807988405193</v>
+        <v>1.778839577240808</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.219894981942286</v>
@@ -17196,7 +17046,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.796813409115184</v>
+        <v>1.782493694231517</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.804782431126235</v>
@@ -17285,7 +17135,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.796685561539547</v>
+        <v>1.786704402322864</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.08553684547432</v>
@@ -17374,7 +17224,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.802882069020458</v>
+        <v>1.789563046253715</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.14611110571994</v>
@@ -17463,7 +17313,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.813252896762572</v>
+        <v>1.800610263539909</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.979514667672193</v>
@@ -17552,7 +17402,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.809172780362195</v>
+        <v>1.795516744232844</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.589715606445975</v>
@@ -17641,7 +17491,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.818616684988849</v>
+        <v>1.801715113843363</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.13747004280438</v>
@@ -17730,7 +17580,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.824639810698657</v>
+        <v>1.80317686172471</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.691502113741289</v>
@@ -17819,7 +17669,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.833202231462438</v>
+        <v>1.81784588815226</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.62688205299479</v>
@@ -17908,7 +17758,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.842384507769559</v>
+        <v>1.831164780851544</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.948499524474264</v>
@@ -17997,7 +17847,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.844713539287267</v>
+        <v>1.831539640579434</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.197178815907328</v>
@@ -18086,7 +17936,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.845053307930529</v>
+        <v>1.835543801390887</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.992765081510904</v>
@@ -18175,7 +18025,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.857908392568079</v>
+        <v>1.84500687333029</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.295309631686402</v>
@@ -18264,7 +18114,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.871035930405105</v>
+        <v>1.862724280799341</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.324523749134456</v>
@@ -18353,7 +18203,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.876995691108823</v>
+        <v>1.860889406819777</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.496505867476309</v>
@@ -18442,7 +18292,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.887173261716194</v>
+        <v>1.870783617638367</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.784730654958845</v>
@@ -18531,7 +18381,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.882944070329836</v>
+        <v>1.869029034256257</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.604062639722938</v>
@@ -18620,7 +18470,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.88504810285795</v>
+        <v>1.867049797230474</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.563350576824935</v>
@@ -18709,7 +18559,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.883970933533854</v>
+        <v>1.870470261947376</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.540202501559321</v>
@@ -18995,7 +18845,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.766259902777571</v>
+        <v>1.755948921262157</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.886949120126831</v>
@@ -19084,7 +18934,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.792637330264093</v>
+        <v>1.775941029262452</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.668765223681143</v>
@@ -19173,7 +19023,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.804845903451778</v>
+        <v>1.790560443584897</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.877718755161787</v>
@@ -19262,7 +19112,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.814657324441634</v>
+        <v>1.793713622619349</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.441461467410824</v>
@@ -19351,7 +19201,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.834675843908841</v>
+        <v>1.80958240794091</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.027273106389664</v>
@@ -19440,7 +19290,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.846766514952316</v>
+        <v>1.803543220394201</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.944661831355745</v>
@@ -19529,7 +19379,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.851742468235324</v>
+        <v>1.797899014718515</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.93797145385059</v>
@@ -19618,7 +19468,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.815816926772601</v>
+        <v>1.773389139270949</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.580925224194422</v>
@@ -19707,7 +19557,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.816104258020569</v>
+        <v>1.777454858081393</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.576199831149372</v>
@@ -19796,7 +19646,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.823175404632382</v>
+        <v>1.790934427004292</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.382198904928845</v>
@@ -19885,7 +19735,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.837062352445102</v>
+        <v>1.803689141855837</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.271345921645736</v>
@@ -19974,7 +19824,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.832136363548654</v>
+        <v>1.802646601867264</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.645414311920437</v>
@@ -20063,7 +19913,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.825564548201576</v>
+        <v>1.796597596255904</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.43616962919294</v>
@@ -20152,7 +20002,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.820979863829009</v>
+        <v>1.793559039631166</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.088016996202247</v>
@@ -20241,7 +20091,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.82255897191874</v>
+        <v>1.79663251115054</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.208136882644212</v>
@@ -20330,7 +20180,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.816341632703184</v>
+        <v>1.792323108611689</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.359187760977035</v>
@@ -20419,7 +20269,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.818125895013498</v>
+        <v>1.790993190137677</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.2234841447485</v>
@@ -20508,7 +20358,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.818366216518893</v>
+        <v>1.790744412281915</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.722584108008663</v>
@@ -20597,7 +20447,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.819478703755176</v>
+        <v>1.794715132934813</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.755207843925617</v>
@@ -20686,7 +20536,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.826210586407568</v>
+        <v>1.805442460864342</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.678222813918148</v>
@@ -20775,7 +20625,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.834448450744618</v>
+        <v>1.827541306675521</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.770478007346038</v>
@@ -20864,7 +20714,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.840337043143818</v>
+        <v>1.84225260920509</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.544467864808069</v>
@@ -20953,7 +20803,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.862917174340292</v>
+        <v>1.858344643788907</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.377598361328718</v>
@@ -21042,7 +20892,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.869194456104656</v>
+        <v>1.858704272685618</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.672314244333161</v>
@@ -21131,7 +20981,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.868540108386008</v>
+        <v>1.855023073184033</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.949321286022132</v>
@@ -21220,7 +21070,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.864500695993827</v>
+        <v>1.85469207285122</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.798989227718988</v>
@@ -21309,7 +21159,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.864871229770224</v>
+        <v>1.849636712481933</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.192668214362793</v>
@@ -21398,7 +21248,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.875468988479486</v>
+        <v>1.861187031284337</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.388724223544707</v>
@@ -21487,7 +21337,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.880488806933099</v>
+        <v>1.867169501455744</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.762198241001738</v>
@@ -21576,7 +21426,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.880760628681812</v>
+        <v>1.866089615154511</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.705916049861528</v>
@@ -21665,7 +21515,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.865847872670767</v>
+        <v>1.845698627530479</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.540663208474567</v>
@@ -21754,7 +21604,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.865917051853235</v>
+        <v>1.853372849908942</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.459878725764597</v>
@@ -21843,7 +21693,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.870433141204657</v>
+        <v>1.856707560022582</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.470014664678568</v>
@@ -21932,7 +21782,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.872873142355803</v>
+        <v>1.858964150864202</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.517465964682299</v>
@@ -22021,7 +21871,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.855593564609881</v>
+        <v>1.842736719731368</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.495488848006374</v>
@@ -22110,7 +21960,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.843870845024244</v>
+        <v>1.828361936552152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.484657738961662</v>
@@ -22199,7 +22049,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.843527374280123</v>
+        <v>1.824758794433042</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.463037361973654</v>
@@ -22288,7 +22138,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.843759427272513</v>
+        <v>1.822627158825517</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.465474380698259</v>
@@ -22377,7 +22227,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.840886986119826</v>
+        <v>1.82274499668723</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.420896166513376</v>
@@ -22466,7 +22316,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.83200652708092</v>
+        <v>1.819105839423521</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.430731279055851</v>
@@ -22555,7 +22405,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.827807435134961</v>
+        <v>1.811274196752308</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.565968610364267</v>
@@ -22644,7 +22494,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.821328476496248</v>
+        <v>1.810774357564785</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.564075582301197</v>
@@ -22733,7 +22583,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.803356689620378</v>
+        <v>1.795710370658191</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.476621453466273</v>
@@ -22822,7 +22672,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.801621690974477</v>
+        <v>1.792850643759866</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.486032527928106</v>
@@ -22911,7 +22761,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.804928541496438</v>
+        <v>1.791587351216436</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.459272218088929</v>
@@ -23000,7 +22850,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.815472106790843</v>
+        <v>1.808639659630641</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.757897190430341</v>
@@ -23089,7 +22939,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.792753251976378</v>
+        <v>1.787515094779521</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.220819883601877</v>
@@ -23178,7 +23028,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.77788038385753</v>
+        <v>1.778004705358765</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.179824154218632</v>
@@ -23267,7 +23117,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.783547061619895</v>
+        <v>1.784700717433095</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.516689347128578</v>
@@ -23356,7 +23206,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.802446178480166</v>
+        <v>1.798800617701455</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.236785538540182</v>
@@ -23445,7 +23295,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.81504575873028</v>
+        <v>1.813462442338093</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.388897931073549</v>
@@ -23534,7 +23384,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.814783024780841</v>
+        <v>1.818968726264664</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.22109858081369</v>
@@ -23623,7 +23473,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.820684007686113</v>
+        <v>1.823905503951582</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.320307993480101</v>
@@ -23712,7 +23562,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.823587654429634</v>
+        <v>1.824898512917771</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.066409751480673</v>
@@ -23801,7 +23651,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.816219496736241</v>
+        <v>1.815749144992378</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.193147200419833</v>
@@ -23890,7 +23740,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.826200226995366</v>
+        <v>1.823629117195364</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.033283204111198</v>
@@ -23979,7 +23829,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.831842181354369</v>
+        <v>1.823669216531714</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.40587006546161</v>
@@ -24068,7 +23918,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.851082100486911</v>
+        <v>1.842951847371347</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.296958809297813</v>
@@ -24157,7 +24007,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.85714457337162</v>
+        <v>1.848061438036294</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.047702863751613</v>
@@ -24246,7 +24096,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.843774549765206</v>
+        <v>1.838483324582263</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.277984873537466</v>
@@ -24335,7 +24185,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.85352863296951</v>
+        <v>1.843980994460978</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.298348254772211</v>
@@ -24424,7 +24274,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.886280430379414</v>
+        <v>1.862824522439891</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.346900264316844</v>
@@ -24513,7 +24363,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.891997532284709</v>
+        <v>1.866781000614123</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.935942093726788</v>
@@ -24602,7 +24452,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.886134736243378</v>
+        <v>1.856577919129103</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.065200428291247</v>
@@ -24691,7 +24541,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.881748590457421</v>
+        <v>1.85509517837071</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.98982694559006</v>
@@ -24780,7 +24630,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.876734300581332</v>
+        <v>1.849116100307246</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.987497791474748</v>
@@ -24869,7 +24719,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.873455933967879</v>
+        <v>1.844301949761594</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.041176744994322</v>
@@ -24958,7 +24808,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.879578356844347</v>
+        <v>1.852670433432046</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.261606593539343</v>
@@ -25244,7 +25094,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.778787251038872</v>
+        <v>1.759232691732909</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.618801036792498</v>
@@ -25333,7 +25183,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.793887515143811</v>
+        <v>1.77112708729282</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.715049279996329</v>
@@ -25422,7 +25272,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.793751356398401</v>
+        <v>1.775121644195618</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.722572473482504</v>
@@ -25511,7 +25361,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.792334410855989</v>
+        <v>1.777291791325123</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.690432522447291</v>
@@ -25600,7 +25450,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.804959906732291</v>
+        <v>1.785487320403463</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.680928857812606</v>
@@ -25689,7 +25539,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.812829870528117</v>
+        <v>1.787628793030947</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.670698025138703</v>
@@ -25778,7 +25628,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.802915214193126</v>
+        <v>1.772467234651622</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.794474466335754</v>
@@ -25867,7 +25717,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.782774763326701</v>
+        <v>1.746097279845743</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.869665051901537</v>
@@ -25956,7 +25806,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.790958908327585</v>
+        <v>1.761252890819596</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.983142792231155</v>
@@ -26045,7 +25895,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.802699560933317</v>
+        <v>1.778603982622594</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.261543073138948</v>
@@ -26134,7 +25984,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.802210692899424</v>
+        <v>1.786378869309683</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.19778668620965</v>
@@ -26223,7 +26073,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.80606863864241</v>
+        <v>1.793502580671885</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.075725510773081</v>
@@ -26312,7 +26162,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.808966070514456</v>
+        <v>1.797224825794506</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.083419817236241</v>
@@ -26401,7 +26251,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.826490434699677</v>
+        <v>1.810229007416439</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.953066822990638</v>
@@ -26490,7 +26340,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.854378119820183</v>
+        <v>1.834463929135674</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.109594639537395</v>
@@ -26579,7 +26429,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.848922895242805</v>
+        <v>1.822150682238666</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.125955045300709</v>
@@ -26668,7 +26518,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.836082643893662</v>
+        <v>1.812729781190109</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.095465920406938</v>
@@ -26757,7 +26607,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.840217616700513</v>
+        <v>1.820757436615373</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.965575743486594</v>
@@ -26846,7 +26696,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.855010828970307</v>
+        <v>1.832030439138782</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.456831236348314</v>
@@ -26935,7 +26785,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.864849906584608</v>
+        <v>1.849275068415906</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.899977424630692</v>
@@ -27024,7 +26874,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.868329568734251</v>
+        <v>1.867486960878061</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.862831340561256</v>
@@ -27113,7 +26963,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.860891837796282</v>
+        <v>1.860362556626181</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.866210114477937</v>
@@ -27202,7 +27052,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.863433105891442</v>
+        <v>1.862650676022695</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.890374972191638</v>
@@ -27291,7 +27141,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.859065736704469</v>
+        <v>1.858256428161526</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.774580160145996</v>
@@ -27380,7 +27230,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.855354776698809</v>
+        <v>1.846414369261928</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.737327021648996</v>
@@ -27469,7 +27319,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.861206045053383</v>
+        <v>1.852278109005952</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.032426491520887</v>
@@ -27558,7 +27408,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.853685474403962</v>
+        <v>1.844571766137075</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.789226083171246</v>
@@ -27647,7 +27497,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.856966412527577</v>
+        <v>1.850827754991114</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.394870506107334</v>
@@ -27736,7 +27586,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.858966096832681</v>
+        <v>1.857871507032997</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.018983891086982</v>
@@ -27825,7 +27675,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.852150622127475</v>
+        <v>1.852356326117868</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.944721480766982</v>
@@ -27914,7 +27764,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.836216603845486</v>
+        <v>1.835983981213351</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.556228453217763</v>
@@ -28003,7 +27853,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.850804300520311</v>
+        <v>1.849284457219139</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.60389848070855</v>
@@ -28092,7 +27942,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.850696836797474</v>
+        <v>1.846462723759841</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.618048918367789</v>
@@ -28181,7 +28031,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.846302463908983</v>
+        <v>1.841506094288112</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.690304517100389</v>
@@ -28270,7 +28120,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.849750930780015</v>
+        <v>1.840972305220837</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.580587584826591</v>
@@ -28359,7 +28209,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.837044491856216</v>
+        <v>1.824450488929905</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.588978589863779</v>
@@ -28448,7 +28298,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.838562681992514</v>
+        <v>1.828836239720639</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.593736437372972</v>
@@ -28537,7 +28387,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.840261034269531</v>
+        <v>1.829562635951875</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.6073985811889</v>
@@ -28626,7 +28476,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.839788411367214</v>
+        <v>1.830093392563929</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.67012844626839</v>
@@ -28715,7 +28565,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.836982250429029</v>
+        <v>1.831687470655623</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.492616444506685</v>
@@ -28804,7 +28654,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.825087072104525</v>
+        <v>1.822447769891595</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.597263516982153</v>
@@ -28893,7 +28743,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.834784249040485</v>
+        <v>1.828509944445791</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.688075984652342</v>
@@ -28982,7 +28832,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.827018240544156</v>
+        <v>1.821424414281987</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.665545899893481</v>
@@ -29071,7 +28921,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.819753831006897</v>
+        <v>1.809956845837581</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.55638435176432</v>
@@ -29160,7 +29010,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.815619984965892</v>
+        <v>1.803979204443887</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.460263117320876</v>
@@ -29249,7 +29099,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.831247597582828</v>
+        <v>1.824596673078875</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.783342041847833</v>
@@ -29338,7 +29188,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.819772947183967</v>
+        <v>1.816573335779492</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.706652235472141</v>
@@ -29427,7 +29277,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.818121161697895</v>
+        <v>1.814504567270737</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.154725183203273</v>
@@ -29516,7 +29366,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.819343613319525</v>
+        <v>1.818560148453044</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.447127887243117</v>
@@ -29605,7 +29455,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.817254809884678</v>
+        <v>1.819934278013827</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.408299682267557</v>
@@ -29694,7 +29544,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.831244880114688</v>
+        <v>1.841857401175459</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.987401673168565</v>
@@ -29783,7 +29633,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.83113113495274</v>
+        <v>1.845270288797534</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.914192469028745</v>
@@ -29872,7 +29722,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.8334478783312</v>
+        <v>1.84881362754702</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.918729072798178</v>
@@ -29961,7 +29811,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.837721879887626</v>
+        <v>1.853228609720124</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.131841193911804</v>
@@ -30050,7 +29900,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.847883591794721</v>
+        <v>1.85774839188475</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.913278307200637</v>
@@ -30139,7 +29989,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.857340961097133</v>
+        <v>1.864388150063925</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.957254153929536</v>
@@ -30228,7 +30078,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.857773609259666</v>
+        <v>1.85834887237864</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.269268815618295</v>
@@ -30317,7 +30167,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.862732513031891</v>
+        <v>1.863931903666052</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.291310202305191</v>
@@ -30406,7 +30256,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.86598569442403</v>
+        <v>1.874814545840583</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.324439912352038</v>
@@ -30495,7 +30345,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.882728777557013</v>
+        <v>1.889728176545222</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.70161949412492</v>
@@ -30584,7 +30434,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.881502706518714</v>
+        <v>1.890016931150162</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.915595363700462</v>
@@ -30673,7 +30523,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.890649534873035</v>
+        <v>1.891306052808442</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.052506273082788</v>
@@ -30762,7 +30612,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.895098751541823</v>
+        <v>1.891205655745231</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.003236745877227</v>
@@ -30851,7 +30701,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.909256538196767</v>
+        <v>1.899083800102757</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.768550973119647</v>
@@ -30940,7 +30790,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.904719032209275</v>
+        <v>1.894722174414161</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.722921376439196</v>
@@ -31029,7 +30879,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.902727109913291</v>
+        <v>1.888638085729751</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.959909517683087</v>
@@ -31118,7 +30968,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.901461655140083</v>
+        <v>1.88453979812504</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.964571599233793</v>
@@ -31207,7 +31057,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.902732722571991</v>
+        <v>1.882598314222675</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.961608402771441</v>
@@ -31493,7 +31343,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.695467427736988</v>
+        <v>1.703325199984474</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.22916601238623</v>
@@ -31582,7 +31432,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.702948721236032</v>
+        <v>1.711205262732082</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.239303121626206</v>
@@ -31671,7 +31521,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.704490328382951</v>
+        <v>1.711981666941804</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.215031294870454</v>
@@ -31760,7 +31610,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.701302426995512</v>
+        <v>1.709468793407498</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.168631660797744</v>
@@ -31849,7 +31699,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.707072384022992</v>
+        <v>1.712870629355537</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.211657031393291</v>
@@ -31938,7 +31788,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.711673258400344</v>
+        <v>1.708848359327581</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.217470047526742</v>
@@ -32027,7 +31877,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.693244347363827</v>
+        <v>1.683221332584145</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.413771064528941</v>
@@ -32116,7 +31966,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.585210340742734</v>
+        <v>1.560502751351297</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.795777371902896</v>
@@ -32205,7 +32055,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.582481381944025</v>
+        <v>1.564045257494233</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.102745032523038</v>
@@ -32294,7 +32144,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.601329154496036</v>
+        <v>1.576811006300796</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.025185073825329</v>
@@ -32383,7 +32233,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.604471183249576</v>
+        <v>1.587128134779972</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.318410806863943</v>
@@ -32472,7 +32322,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.6037195953687</v>
+        <v>1.585066574840562</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.113037778906441</v>
@@ -32561,7 +32411,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.622638830833763</v>
+        <v>1.598187426055552</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.37972524730046</v>
@@ -32650,7 +32500,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.613203742318601</v>
+        <v>1.589242459779177</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.911871097831463</v>
@@ -32739,7 +32589,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.622671535031371</v>
+        <v>1.596811482811158</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.028801243005857</v>
@@ -32828,7 +32678,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.624003641092318</v>
+        <v>1.597043912527234</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.273492471063078</v>
@@ -32917,7 +32767,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.625624208152709</v>
+        <v>1.597547171018449</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.046471736601652</v>
@@ -33006,7 +32856,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.624240502135845</v>
+        <v>1.59779537205479</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.319400023592875</v>
@@ -33095,7 +32945,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.61660448679911</v>
+        <v>1.588270304904226</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.067303244742501</v>
@@ -33184,7 +33034,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.616921572347077</v>
+        <v>1.59814636996558</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.892064851785834</v>
@@ -33273,7 +33123,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.621278327802945</v>
+        <v>1.612161290224725</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.200356847403034</v>
@@ -33362,7 +33212,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.62255208846654</v>
+        <v>1.611174797385466</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.446658866027932</v>
@@ -33451,7 +33301,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.629918267766288</v>
+        <v>1.617345839684805</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.45077625968901</v>
@@ -33540,7 +33390,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.635717295653967</v>
+        <v>1.616496992756939</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.42590277178578</v>
@@ -33629,7 +33479,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.627267064309578</v>
+        <v>1.61214858593792</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.253333301851155</v>
@@ -33718,7 +33568,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624681152281702</v>
+        <v>1.610765701816048</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.812877730777087</v>
@@ -33807,7 +33657,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.620938525105249</v>
+        <v>1.609000522979499</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.214658443220468</v>
@@ -33896,7 +33746,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621696184956231</v>
+        <v>1.609065018552129</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.692672065171564</v>
@@ -33985,7 +33835,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.628838889790204</v>
+        <v>1.617390993418691</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.378609245777151</v>
@@ -34074,7 +33924,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.630318231863624</v>
+        <v>1.620155852488916</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.324221427771786</v>
@@ -34163,7 +34013,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.61994108280961</v>
+        <v>1.606709858705681</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.196677299137924</v>
@@ -34252,7 +34102,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625966042269282</v>
+        <v>1.61168351761338</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.245201903884269</v>
@@ -34341,7 +34191,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634986307109913</v>
+        <v>1.619368553446239</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.226820378187112</v>
@@ -34430,7 +34280,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.649133116778025</v>
+        <v>1.632705806005957</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.135922555696273</v>
@@ -34519,7 +34369,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.649655480936336</v>
+        <v>1.628095904165537</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.209177789843881</v>
@@ -34608,7 +34458,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.638055461554247</v>
+        <v>1.617088092183303</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.171314971388826</v>
@@ -34697,7 +34547,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.644340540642948</v>
+        <v>1.625420379388193</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.180344900131653</v>
@@ -34786,7 +34636,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.651172979889586</v>
+        <v>1.629301552461302</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.22149768111266</v>
@@ -34875,7 +34725,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.653479884261885</v>
+        <v>1.636639966040672</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.187388785451606</v>
@@ -34964,7 +34814,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.669278558273993</v>
+        <v>1.649431731242693</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.151467041884548</v>
@@ -35053,7 +34903,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.672054123447295</v>
+        <v>1.648604387291669</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.180055514540272</v>
@@ -35142,7 +34992,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669679768197949</v>
+        <v>1.643750684274206</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.188245274033983</v>
@@ -35231,7 +35081,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.674588847456468</v>
+        <v>1.651169570446295</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.119389092113767</v>
@@ -35320,7 +35170,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.664034060041907</v>
+        <v>1.639676821480049</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.177163929070048</v>
@@ -35409,7 +35259,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.65854742577848</v>
+        <v>1.635999601784232</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.114179852439877</v>
@@ -35498,7 +35348,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.675371343393056</v>
+        <v>1.654128487329921</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.434453218164562</v>
@@ -35587,7 +35437,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.669650494740042</v>
+        <v>1.652686845380423</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.160956399010816</v>
@@ -35676,7 +35526,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.671951459989402</v>
+        <v>1.649402170361874</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.326730596561882</v>
@@ -35765,7 +35615,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.663766401608783</v>
+        <v>1.642792677372733</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.007121131565513</v>
@@ -35854,7 +35704,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.665017731432906</v>
+        <v>1.654998153774818</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.994207806196107</v>
@@ -35943,7 +35793,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.664684117630019</v>
+        <v>1.654949026118322</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.085826038475364</v>
@@ -36032,7 +35882,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.664992460234039</v>
+        <v>1.660416213598466</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.076831796290469</v>
@@ -36121,7 +35971,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.666228337624675</v>
+        <v>1.667668991285997</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.416031308203284</v>
@@ -36210,7 +36060,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.672062318355094</v>
+        <v>1.673281445172915</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.05311958020102</v>
@@ -36299,7 +36149,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.670655063369345</v>
+        <v>1.674892515389685</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.424139297818098</v>
@@ -36388,7 +36238,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.677736269604052</v>
+        <v>1.68453237726239</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.327537788237066</v>
@@ -36477,7 +36327,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.684422873679596</v>
+        <v>1.69493031728691</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.037714968410359</v>
@@ -36566,7 +36416,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.680444979072919</v>
+        <v>1.691806299820315</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.32018887649179</v>
@@ -36655,7 +36505,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.701152339996185</v>
+        <v>1.715529816236847</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.921119647828226</v>
@@ -36744,7 +36594,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.719815223963574</v>
+        <v>1.733839276763379</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.255977658358831</v>
@@ -36833,7 +36683,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.721100929989601</v>
+        <v>1.735584278207617</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.446604198653231</v>
@@ -36922,7 +36772,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.722186163133856</v>
+        <v>1.730827196237102</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.28509896886808</v>
@@ -37011,7 +36861,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.716052048077978</v>
+        <v>1.728245108122073</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.466241811877252</v>
@@ -37100,7 +36950,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.732437665282492</v>
+        <v>1.741786817605534</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.845957798182079</v>
@@ -37189,7 +37039,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.743164861110377</v>
+        <v>1.750334270386916</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.480840265359419</v>
@@ -37278,7 +37128,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.728755391197948</v>
+        <v>1.742983860595316</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.528669028299797</v>
@@ -37367,7 +37217,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.697420399414473</v>
+        <v>1.716123323700184</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.563466203617399</v>
@@ -37456,7 +37306,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.695914093950463</v>
+        <v>1.712614452655054</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.528365501547216</v>
@@ -37742,7 +37592,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.552075871516531</v>
+        <v>1.57146646840108</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.457837168482291</v>
@@ -37831,7 +37681,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.592859297752449</v>
+        <v>1.612530807146053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.154913294655907</v>
@@ -37920,7 +37770,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.623776592129352</v>
+        <v>1.647381278455096</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.407769962408713</v>
@@ -38009,7 +37859,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.645822538714403</v>
+        <v>1.672115411421916</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.225506364708342</v>
@@ -38098,7 +37948,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.702525020147799</v>
+        <v>1.725937970242764</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.617038431355073</v>
@@ -38187,7 +38037,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.715800575825756</v>
+        <v>1.73138626757743</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.036646675106579</v>
@@ -38276,7 +38126,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.726782656603147</v>
+        <v>1.743409886689373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.616820430806472</v>
@@ -38365,7 +38215,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.731555099804149</v>
+        <v>1.753236001181756</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.089544504662584</v>
@@ -38454,7 +38304,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.753910552192648</v>
+        <v>1.777701643669619</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.899589907383658</v>
@@ -38543,7 +38393,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.789552820608663</v>
+        <v>1.81334061872794</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.137643333649436</v>
@@ -38632,7 +38482,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.812459680492951</v>
+        <v>1.835169970891677</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.941344324051548</v>
@@ -38721,7 +38571,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.824231881507386</v>
+        <v>1.846046657215752</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.979052626030706</v>
@@ -38810,7 +38660,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.850855616630342</v>
+        <v>1.874929349469575</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.369989768036683</v>
@@ -38899,7 +38749,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.852301923898017</v>
+        <v>1.877257844838268</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.278286100471229</v>
@@ -38988,7 +38838,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.855592949203869</v>
+        <v>1.8831314099707</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.581643775395296</v>
@@ -39077,7 +38927,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.854620100267088</v>
+        <v>1.879401571722754</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.369073893723467</v>
@@ -39166,7 +39016,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.824013520740486</v>
+        <v>1.848945669042111</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.449215344479116</v>
@@ -39255,7 +39105,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.810373851981811</v>
+        <v>1.836072102979171</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.062249004837413</v>
@@ -39344,7 +39194,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.804779630361131</v>
+        <v>1.828616722323162</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.215394160364033</v>
@@ -39433,7 +39283,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.829272549422115</v>
+        <v>1.85592381777029</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.266388342676509</v>
@@ -39522,7 +39372,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.841577299710637</v>
+        <v>1.871811634150592</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.299788796294918</v>
@@ -39611,7 +39461,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.840932251200867</v>
+        <v>1.868139234520557</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.108412498848314</v>
@@ -39700,7 +39550,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.847825337550511</v>
+        <v>1.876225965014726</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.940209456061696</v>
@@ -39789,7 +39639,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.846489639418478</v>
+        <v>1.871912499096543</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.063172576729773</v>
@@ -39878,7 +39728,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.844208952341117</v>
+        <v>1.871547469387898</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.247712817215485</v>
@@ -39967,7 +39817,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.845936929061749</v>
+        <v>1.873515775410066</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.979554179010382</v>
@@ -40056,7 +39906,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.839925855526566</v>
+        <v>1.868711551387526</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.255183088332975</v>
@@ -40145,7 +39995,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.843865669577731</v>
+        <v>1.875548648442659</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.213497827856206</v>
@@ -40234,7 +40084,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.837534988022055</v>
+        <v>1.870161946002571</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.330624185345042</v>
@@ -40323,7 +40173,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.832607345598023</v>
+        <v>1.863415373719328</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.927468466160599</v>
@@ -40412,7 +40262,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.821372541662969</v>
+        <v>1.851314073956343</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.693469267985193</v>
@@ -40501,7 +40351,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.846723226096282</v>
+        <v>1.879585508143753</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.692420762577459</v>
@@ -40590,7 +40440,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.863489432546996</v>
+        <v>1.893356009091688</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.807880975078839</v>
@@ -40679,7 +40529,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.889257230644684</v>
+        <v>1.916464038839757</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.587307560404552</v>
@@ -40768,7 +40618,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.878917719195918</v>
+        <v>1.905190912873407</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.612015828519716</v>
@@ -40857,7 +40707,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.849889294279035</v>
+        <v>1.880589157407107</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.69431934491581</v>
@@ -40946,7 +40796,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.84075556244481</v>
+        <v>1.87565088907301</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.618894366448554</v>
@@ -41035,7 +40885,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.840996700336913</v>
+        <v>1.874095356589323</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.732659847284514</v>
@@ -41124,7 +40974,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.811983024860714</v>
+        <v>1.852189270485268</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.652633456269717</v>
@@ -41213,7 +41063,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.807816928154273</v>
+        <v>1.84641648002728</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.597292837387701</v>
@@ -41302,7 +41152,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.788735519825143</v>
+        <v>1.835277268347477</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.625327417136767</v>
@@ -41391,7 +41241,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.787014165232084</v>
+        <v>1.829949889375951</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.620136424369952</v>
@@ -41480,7 +41330,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.784329312555486</v>
+        <v>1.823180557089997</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.753333738702147</v>
@@ -41569,7 +41419,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.781150480318072</v>
+        <v>1.822193851316236</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.674278269760613</v>
@@ -41658,7 +41508,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.788164068088805</v>
+        <v>1.830982856706009</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.516351751704977</v>
@@ -41747,7 +41597,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.802042756590756</v>
+        <v>1.848440878210387</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.946032174292037</v>
@@ -41836,7 +41686,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.78741906345258</v>
+        <v>1.831065824350688</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.878949600636954</v>
@@ -41925,7 +41775,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.778562135372312</v>
+        <v>1.819245763250292</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.974259091457527</v>
@@ -42014,7 +41864,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.783387713434185</v>
+        <v>1.826579215265215</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.09373010605456</v>
@@ -42103,7 +41953,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.794039832432224</v>
+        <v>1.837406943662802</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.730246365890427</v>
@@ -42192,7 +42042,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.815838157846927</v>
+        <v>1.864778817655761</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.945593679921682</v>
@@ -42281,7 +42131,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.827302619242854</v>
+        <v>1.879161981800997</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.332596401659483</v>
@@ -42370,7 +42220,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.841047803707465</v>
+        <v>1.889848301721941</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.791061384866178</v>
@@ -42459,7 +42309,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.856593210795876</v>
+        <v>1.908814300640725</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.947903959829778</v>
@@ -42548,7 +42398,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.865252799410495</v>
+        <v>1.910131450185518</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.782112159979137</v>
@@ -42637,7 +42487,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.867642334578496</v>
+        <v>1.911963062547829</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.151651564008705</v>
@@ -42726,7 +42576,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.866716737569018</v>
+        <v>1.911719663903202</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.040590308791673</v>
@@ -42815,7 +42665,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.870660318957191</v>
+        <v>1.91783116923271</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.128997838258745</v>
@@ -42904,7 +42754,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.886850790961</v>
+        <v>1.932977987267015</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.112585466748143</v>
@@ -42993,7 +42843,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.884033384840127</v>
+        <v>1.929854969925802</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.993286470507678</v>
@@ -43082,7 +42932,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.883981144148813</v>
+        <v>1.929505829364671</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.951820049147609</v>
@@ -43171,7 +43021,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.90653082896155</v>
+        <v>1.95319900534798</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.127976489223354</v>
@@ -43260,7 +43110,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.921458507119417</v>
+        <v>1.970342269159896</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.735152771806934</v>
@@ -43349,7 +43199,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.905134789647291</v>
+        <v>1.952286333706238</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.225618691757824</v>
@@ -43438,7 +43288,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.906086381491125</v>
+        <v>1.952016272717535</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.495034157569095</v>
@@ -43527,7 +43377,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.883381970047165</v>
+        <v>1.932508560180372</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.541791807080822</v>
@@ -43616,7 +43466,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.851533198652851</v>
+        <v>1.904503586671392</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.208400083982366</v>
@@ -43705,7 +43555,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.839736676882932</v>
+        <v>1.892281098127318</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.356307369450601</v>
